--- a/7/1/1/6/2/PIB regional 2008 a 2021 - Anual.xlsx
+++ b/7/1/1/6/2/PIB regional 2008 a 2021 - Anual.xlsx
@@ -1286,6 +1286,60 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
+      <c r="B14">
+        <v>1052</v>
+      </c>
+      <c r="C14">
+        <v>3633</v>
+      </c>
+      <c r="D14">
+        <v>14604</v>
+      </c>
+      <c r="E14">
+        <v>3175</v>
+      </c>
+      <c r="F14">
+        <v>4175</v>
+      </c>
+      <c r="G14">
+        <v>11244</v>
+      </c>
+      <c r="H14">
+        <v>60508</v>
+      </c>
+      <c r="I14">
+        <v>6487</v>
+      </c>
+      <c r="J14">
+        <v>4798</v>
+      </c>
+      <c r="K14">
+        <v>10339</v>
+      </c>
+      <c r="L14">
+        <v>3764</v>
+      </c>
+      <c r="M14">
+        <v>1883</v>
+      </c>
+      <c r="N14">
+        <v>4718</v>
+      </c>
+      <c r="O14">
+        <v>854</v>
+      </c>
+      <c r="P14">
+        <v>1597</v>
+      </c>
+      <c r="Q14">
+        <v>133018</v>
+      </c>
+      <c r="R14">
+        <v>78</v>
+      </c>
+      <c r="S14">
+        <v>12636</v>
+      </c>
       <c r="T14">
         <v>145734</v>
       </c>
